--- a/examples/keywordSchemeName.xlsx
+++ b/examples/keywordSchemeName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GithubC\iSamples\metadata\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6413008A-8EE6-474C-85B9-DC596E3CDCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFC681-CFC6-4EC6-9526-0F1E77C4A3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="735" windowWidth="14415" windowHeight="15270" xr2:uid="{D416AF86-35DB-4E61-80A4-023AF8898566}"/>
+    <workbookView xWindow="6000" yWindow="3105" windowWidth="18075" windowHeight="15270" xr2:uid="{D416AF86-35DB-4E61-80A4-023AF8898566}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,13 +708,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05949188-354D-4953-A12D-35BF02EC4640}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
   </cols>
   <sheetData>
